--- a/analysis/5.1/td_0.14s.xlsx
+++ b/analysis/5.1/td_0.14s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,27 +102,27 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.14000000000000001</v>
       </c>
       <c r="D2">
-        <v>321.91240000000033</v>
+        <v>451.83704000000375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3">
         <v>0.14000000000000001</v>
       </c>
       <c r="D3">
-        <v>299.81548000000333</v>
+        <v>321.91240000000033</v>
       </c>
     </row>
     <row r="4">
@@ -130,13 +130,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.14000000000000001</v>
       </c>
       <c r="D4">
-        <v>246.67722500000056</v>
+        <v>299.81548000000333</v>
       </c>
     </row>
     <row r="5">
@@ -144,27 +144,27 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
         <v>0.14000000000000001</v>
       </c>
       <c r="D5">
-        <v>291.89520000000232</v>
+        <v>246.67722500000056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C6">
         <v>0.14000000000000001</v>
       </c>
       <c r="D6">
-        <v>278.73939999999766</v>
+        <v>291.89520000000232</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7">
-        <v>274.27376000000299</v>
+        <v>388.47403999999955</v>
       </c>
     </row>
     <row r="8">
@@ -186,41 +186,41 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.14000000000000001</v>
       </c>
       <c r="D8">
-        <v>283.3494</v>
+        <v>278.73939999999766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.14000000000000001</v>
       </c>
       <c r="D9">
-        <v>256.68206666666367</v>
+        <v>274.27376000000299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.14000000000000001</v>
       </c>
       <c r="D10">
-        <v>277.04960000000017</v>
+        <v>283.3494</v>
       </c>
     </row>
     <row r="11">
@@ -228,13 +228,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.14000000000000001</v>
       </c>
       <c r="D11">
-        <v>249.99049600000023</v>
+        <v>256.68206666666367</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12">
         <v>0.14000000000000001</v>
       </c>
       <c r="D12">
-        <v>192.86164210526277</v>
+        <v>277.04960000000017</v>
       </c>
     </row>
     <row r="13">
@@ -256,41 +256,41 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.14000000000000001</v>
       </c>
       <c r="D13">
-        <v>276.83220000000256</v>
+        <v>249.99049600000023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.14000000000000001</v>
       </c>
       <c r="D14">
-        <v>280.51148000000069</v>
+        <v>192.86164210526277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
         <v>0.14000000000000001</v>
       </c>
       <c r="D15">
-        <v>279.49132000000077</v>
+        <v>276.83220000000256</v>
       </c>
     </row>
     <row r="16">
@@ -298,13 +298,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B16">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C16">
         <v>0.14000000000000001</v>
       </c>
       <c r="D16">
-        <v>251.71250000000251</v>
+        <v>280.51148000000069</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C17">
         <v>0.14000000000000001</v>
       </c>
       <c r="D17">
-        <v>241.93015999999901</v>
+        <v>279.49132000000077</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.14000000000000001</v>
       </c>
       <c r="D18">
-        <v>276.79100000000091</v>
+        <v>251.71250000000251</v>
       </c>
     </row>
     <row r="19">
@@ -340,41 +340,41 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.14000000000000001</v>
       </c>
       <c r="D19">
-        <v>278.63087999999982</v>
+        <v>241.93015999999901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C20">
         <v>0.14000000000000001</v>
       </c>
       <c r="D20">
-        <v>277.950279999999</v>
+        <v>276.79100000000091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21">
         <v>0.14000000000000001</v>
       </c>
       <c r="D21">
-        <v>214.61631999999713</v>
+        <v>278.63087999999982</v>
       </c>
     </row>
     <row r="22">
@@ -382,13 +382,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B22">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C22">
         <v>0.14000000000000001</v>
       </c>
       <c r="D22">
-        <v>221.85373333333422</v>
+        <v>277.950279999999</v>
       </c>
     </row>
     <row r="23">
@@ -396,13 +396,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C23">
         <v>0.14000000000000001</v>
       </c>
       <c r="D23">
-        <v>274.94995999999912</v>
+        <v>214.61631999999713</v>
       </c>
     </row>
     <row r="24">
@@ -410,13 +410,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.14000000000000001</v>
       </c>
       <c r="D24">
-        <v>231.46909999999883</v>
+        <v>221.85373333333422</v>
       </c>
     </row>
     <row r="25">
@@ -424,41 +424,41 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>5.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C25">
         <v>0.14000000000000001</v>
       </c>
       <c r="D25">
-        <v>222.30872000000147</v>
+        <v>274.94995999999912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26">
         <v>0.14000000000000001</v>
       </c>
       <c r="D26">
-        <v>213.62639999999931</v>
+        <v>231.46909999999883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C27">
         <v>0.14000000000000001</v>
       </c>
       <c r="D27">
-        <v>212.5621999999999</v>
+        <v>222.30872000000147</v>
       </c>
     </row>
     <row r="28">
@@ -466,13 +466,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B28">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C28">
         <v>0.14000000000000001</v>
       </c>
       <c r="D28">
-        <v>195.62799999999956</v>
+        <v>213.62639999999931</v>
       </c>
     </row>
     <row r="29">
@@ -480,13 +480,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.14000000000000001</v>
       </c>
       <c r="D29">
-        <v>219.64435000000009</v>
+        <v>212.5621999999999</v>
       </c>
     </row>
     <row r="30">
@@ -494,41 +494,41 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B30">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C30">
         <v>0.14000000000000001</v>
       </c>
       <c r="D30">
-        <v>219.64617777777818</v>
+        <v>195.62799999999956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B31">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.14000000000000001</v>
       </c>
       <c r="D31">
-        <v>211.51399999998668</v>
+        <v>219.64435000000009</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C32">
         <v>0.14000000000000001</v>
       </c>
       <c r="D32">
-        <v>237.51279999999912</v>
+        <v>219.64617777777818</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B33">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C33">
         <v>0.14000000000000001</v>
       </c>
       <c r="D33">
-        <v>218.5582500000007</v>
+        <v>211.51399999998668</v>
       </c>
     </row>
     <row r="34">
@@ -550,13 +550,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B34">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.14000000000000001</v>
       </c>
       <c r="D34">
-        <v>218.55564999999939</v>
+        <v>237.51279999999912</v>
       </c>
     </row>
     <row r="35">
@@ -564,41 +564,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B35">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C35">
         <v>0.14000000000000001</v>
       </c>
       <c r="D35">
-        <v>210.57333333333074</v>
+        <v>218.5582500000007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B36">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C36">
         <v>0.14000000000000001</v>
       </c>
       <c r="D36">
-        <v>199.68390000000005</v>
+        <v>218.55564999999939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B37">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C37">
         <v>0.14000000000000001</v>
       </c>
       <c r="D37">
-        <v>211.70019999999988</v>
+        <v>210.57333333333074</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B38">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C38">
         <v>0.14000000000000001</v>
       </c>
       <c r="D38">
-        <v>194.5440599999994</v>
+        <v>199.68390000000005</v>
       </c>
     </row>
     <row r="39">
@@ -620,41 +620,41 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B39">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C39">
         <v>0.14000000000000001</v>
       </c>
       <c r="D39">
-        <v>226.74199999999999</v>
+        <v>211.70019999999988</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B40">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C40">
         <v>0.14000000000000001</v>
       </c>
       <c r="D40">
-        <v>198.74932307692274</v>
+        <v>194.5440599999994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.14000000000000001</v>
       </c>
       <c r="D41">
-        <v>193.76547999999957</v>
+        <v>226.74199999999999</v>
       </c>
     </row>
     <row r="42">
@@ -662,40 +662,68 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B42">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C42">
         <v>0.14000000000000001</v>
       </c>
       <c r="D42">
-        <v>198.6784615384625</v>
+        <v>198.74932307692274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B43">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C43">
         <v>0.14000000000000001</v>
       </c>
       <c r="D43">
-        <v>197.76290909090761</v>
+        <v>193.76547999999957</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>100.09999999999999</v>
+      </c>
+      <c r="B44">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D44">
+        <v>198.6784615384625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
         <v>110.09999999999999</v>
       </c>
-      <c r="B44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C44">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D44">
+      <c r="B45">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D45">
+        <v>197.76290909090761</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>110.09999999999999</v>
+      </c>
+      <c r="B46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D46">
         <v>192.54492000000204</v>
       </c>
     </row>
